--- a/biology/Botanique/Dis-moi_pourquoi_ces_choses_sont_si_belles/Dis-moi_pourquoi_ces_choses_sont_si_belles.xlsx
+++ b/biology/Botanique/Dis-moi_pourquoi_ces_choses_sont_si_belles/Dis-moi_pourquoi_ces_choses_sont_si_belles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dis-moi pourquoi ces choses sont si belles est un film québécois réalisé par Lyne Charlebois, sorti en 2023.
-Librement inspiré des échanges épistolaires entre le frère et botaniste Marie-Victorin et la botaniste Marcelle Gauvreau, le film est présenté en première mondiale au Festival du cinéma international en Abitibi-Témiscamingue[1], lors de la cérémonie de clôture[2].
-Il s’agit du premier long métrage de Lyne Charlebois depuis Borderline, qui lui avait valu le prix Jutra de la meilleure réalisation en 2009[1].
-Le film est produit par Roger Frappier[3].
+Librement inspiré des échanges épistolaires entre le frère et botaniste Marie-Victorin et la botaniste Marcelle Gauvreau, le film est présenté en première mondiale au Festival du cinéma international en Abitibi-Témiscamingue, lors de la cérémonie de clôture.
+Il s’agit du premier long métrage de Lyne Charlebois depuis Borderline, qui lui avait valu le prix Jutra de la meilleure réalisation en 2009.
+Le film est produit par Roger Frappier.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enseignant et fondateur du Jardin botanique de Montréal, le frère Marie-Victorin se lie d’amitié avec son étudiante Marcelle Gauvreau. Tous deux ont frôlé la mort et partagent le même amour de Dieu et de la nature. Dans un échange épistolaire qui durera jusqu'à la mort de Marie-Victorin, ils explorent les désirs humains et la « biologie sans voile »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enseignant et fondateur du Jardin botanique de Montréal, le frère Marie-Victorin se lie d’amitié avec son étudiante Marcelle Gauvreau. Tous deux ont frôlé la mort et partagent le même amour de Dieu et de la nature. Dans un échange épistolaire qui durera jusqu'à la mort de Marie-Victorin, ils explorent les désirs humains et la « biologie sans voile ».
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Dis-moi pourquoi ces choses sont si belles
 Réalisation : Lyne Charlebois
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alexandre Goyette : frère Marie-Victorin
 Mylène Mackay : Marcelle Gauvreau
@@ -629,9 +647,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2023 : Grand Prix Hydro-Québec décerné par le public au Festival du cinéma international en Abitibi-Témiscamingue[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023 : Grand Prix Hydro-Québec décerné par le public au Festival du cinéma international en Abitibi-Témiscamingue.
 </t>
         </is>
       </c>
